--- a/table/source/Character.xlsx
+++ b/table/source/Character.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,25 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>monster_001</t>
+  </si>
+  <si>
+    <t>monster_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_001_skin_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_002_skin_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -393,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -456,16 +475,50 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
